--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="32">
   <si>
     <t>kvw5270</t>
   </si>
@@ -24,6 +24,90 @@
   </si>
   <si>
     <t>02/09/2020 23:28:44</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Invalid Username!</t>
+  </si>
+  <si>
+    <t>02/22/2020 15:39:22</t>
+  </si>
+  <si>
+    <t>02/22/2020 22:00:59</t>
+  </si>
+  <si>
+    <t>02/22/2020 22:25:44</t>
+  </si>
+  <si>
+    <t>02/22/2020 22:26:31</t>
+  </si>
+  <si>
+    <t>02/22/2020 22:27:39</t>
+  </si>
+  <si>
+    <t>02/22/2020 22:28:03</t>
+  </si>
+  <si>
+    <t>02/22/2020 22:29:17</t>
+  </si>
+  <si>
+    <t>02/22/2020 22:29:34</t>
+  </si>
+  <si>
+    <t>02/22/2020 22:31:16</t>
+  </si>
+  <si>
+    <t>02/22/2020 22:35:44</t>
+  </si>
+  <si>
+    <t>02/22/2020 22:37:38</t>
+  </si>
+  <si>
+    <t>02/22/2020 22:39:06</t>
+  </si>
+  <si>
+    <t>02/22/2020 22:39:26</t>
+  </si>
+  <si>
+    <t>02/23/2020 00:09:20</t>
+  </si>
+  <si>
+    <t>02/23/2020 00:10:14</t>
+  </si>
+  <si>
+    <t>02/23/2020 00:16:50</t>
+  </si>
+  <si>
+    <t>02/23/2020 00:18:20</t>
+  </si>
+  <si>
+    <t>02/23/2020 00:20:37</t>
+  </si>
+  <si>
+    <t>02/23/2020 00:23:19</t>
+  </si>
+  <si>
+    <t>02/23/2020 00:23:59</t>
+  </si>
+  <si>
+    <t>02/23/2020 00:24:19</t>
+  </si>
+  <si>
+    <t>02/23/2020 00:43:56</t>
+  </si>
+  <si>
+    <t>02/23/2020 00:46:37</t>
+  </si>
+  <si>
+    <t>02/23/2020 00:47:22</t>
+  </si>
+  <si>
+    <t>02/23/2020 00:49:07</t>
   </si>
 </sst>
 </file>
@@ -68,18 +152,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.37109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0234375" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="55">
   <si>
     <t>kvw5270</t>
   </si>
@@ -108,6 +108,75 @@
   </si>
   <si>
     <t>02/23/2020 00:49:07</t>
+  </si>
+  <si>
+    <t>02/23/2020 11:22:40</t>
+  </si>
+  <si>
+    <t>02/23/2020 11:24:00</t>
+  </si>
+  <si>
+    <t>02/23/2020 11:24:25</t>
+  </si>
+  <si>
+    <t>02/23/2020 11:25:12</t>
+  </si>
+  <si>
+    <t>02/23/2020 11:25:42</t>
+  </si>
+  <si>
+    <t>02/23/2020 11:26:02</t>
+  </si>
+  <si>
+    <t>02/23/2020 11:26:21</t>
+  </si>
+  <si>
+    <t>02/23/2020 11:27:57</t>
+  </si>
+  <si>
+    <t>02/23/2020 11:31:36</t>
+  </si>
+  <si>
+    <t>02/23/2020 11:32:16</t>
+  </si>
+  <si>
+    <t>02/23/2020 11:57:43</t>
+  </si>
+  <si>
+    <t>02/23/2020 11:58:57</t>
+  </si>
+  <si>
+    <t>02/23/2020 11:59:22</t>
+  </si>
+  <si>
+    <t>02/23/2020 12:06:34</t>
+  </si>
+  <si>
+    <t>02/23/2020 12:07:30</t>
+  </si>
+  <si>
+    <t>02/23/2020 12:10:30</t>
+  </si>
+  <si>
+    <t>02/23/2020 12:12:33</t>
+  </si>
+  <si>
+    <t>02/23/2020 13:59:22</t>
+  </si>
+  <si>
+    <t>02/23/2020 13:59:44</t>
+  </si>
+  <si>
+    <t>02/23/2020 14:02:27</t>
+  </si>
+  <si>
+    <t>02/23/2020 14:09:58</t>
+  </si>
+  <si>
+    <t>02/23/2020 14:10:32</t>
+  </si>
+  <si>
+    <t>02/23/2020 14:12:02</t>
   </si>
 </sst>
 </file>
@@ -175,7 +244,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="71">
   <si>
     <t>kvw5270</t>
   </si>
@@ -177,6 +177,54 @@
   </si>
   <si>
     <t>02/23/2020 14:12:02</t>
+  </si>
+  <si>
+    <t>02/23/2020 14:15:30</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:20:33</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:20:44</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:22:56</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:23:30</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:24:05</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:24:21</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:24:59</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:27:39</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:29:10</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:30:11</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:30:25</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:31:24</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:31:52</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:32:35</t>
+  </si>
+  <si>
+    <t>02/23/2020 15:32:53</t>
   </si>
 </sst>
 </file>
@@ -244,7 +292,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="96">
   <si>
     <t>kvw5270</t>
   </si>
@@ -225,6 +225,81 @@
   </si>
   <si>
     <t>02/23/2020 15:32:53</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:19:01</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:22:26</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:25:03</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:27:12</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:31:05</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:37:25</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:37:45</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:38:53</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:39:06</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:39:34</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:40:28</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:40:48</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:41:09</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:43:13</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:56:02</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:56:24</t>
+  </si>
+  <si>
+    <t>03/02/2020 01:57:51</t>
+  </si>
+  <si>
+    <t>03/02/2020 02:01:23</t>
+  </si>
+  <si>
+    <t>03/02/2020 02:13:21</t>
+  </si>
+  <si>
+    <t>03/02/2020 02:36:50</t>
+  </si>
+  <si>
+    <t>03/02/2020 02:37:22</t>
+  </si>
+  <si>
+    <t>03/02/2020 02:38:06</t>
+  </si>
+  <si>
+    <t>03/02/2020 02:38:35</t>
+  </si>
+  <si>
+    <t>03/02/2020 02:40:06</t>
+  </si>
+  <si>
+    <t>03/02/2020 02:40:33</t>
   </si>
 </sst>
 </file>
@@ -292,7 +367,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="118">
   <si>
     <t>kvw5270</t>
   </si>
@@ -300,6 +300,72 @@
   </si>
   <si>
     <t>03/02/2020 02:40:33</t>
+  </si>
+  <si>
+    <t>03/02/2020 02:51:47</t>
+  </si>
+  <si>
+    <t>03/02/2020 02:52:30</t>
+  </si>
+  <si>
+    <t>03/02/2020 03:03:31</t>
+  </si>
+  <si>
+    <t>03/09/2020 23:30:16</t>
+  </si>
+  <si>
+    <t>03/13/2020 19:24:14</t>
+  </si>
+  <si>
+    <t>03/13/2020 19:29:31</t>
+  </si>
+  <si>
+    <t>03/13/2020 19:45:06</t>
+  </si>
+  <si>
+    <t>03/13/2020 19:59:01</t>
+  </si>
+  <si>
+    <t>03/13/2020 20:13:27</t>
+  </si>
+  <si>
+    <t>03/13/2020 20:19:21</t>
+  </si>
+  <si>
+    <t>03/13/2020 20:19:32</t>
+  </si>
+  <si>
+    <t>03/13/2020 20:22:50</t>
+  </si>
+  <si>
+    <t>03/13/2020 20:23:01</t>
+  </si>
+  <si>
+    <t>03/13/2020 20:30:09</t>
+  </si>
+  <si>
+    <t>03/13/2020 20:32:53</t>
+  </si>
+  <si>
+    <t>03/13/2020 20:35:25</t>
+  </si>
+  <si>
+    <t>03/13/2020 20:36:37</t>
+  </si>
+  <si>
+    <t>03/13/2020 20:36:50</t>
+  </si>
+  <si>
+    <t>03/13/2020 20:53:10</t>
+  </si>
+  <si>
+    <t>03/14/2020 14:22:56</t>
+  </si>
+  <si>
+    <t>03/14/2020 14:23:08</t>
+  </si>
+  <si>
+    <t>03/14/2020 14:29:10</t>
   </si>
 </sst>
 </file>
@@ -367,7 +433,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="122">
   <si>
     <t>kvw5270</t>
   </si>
@@ -366,6 +366,18 @@
   </si>
   <si>
     <t>03/14/2020 14:29:10</t>
+  </si>
+  <si>
+    <t>03/14/2020 16:43:19</t>
+  </si>
+  <si>
+    <t>03/14/2020 21:48:06</t>
+  </si>
+  <si>
+    <t>03/14/2020 21:48:25</t>
+  </si>
+  <si>
+    <t>03/14/2020 21:48:58</t>
   </si>
 </sst>
 </file>
@@ -433,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="135">
   <si>
     <t>kvw5270</t>
   </si>
@@ -378,6 +378,45 @@
   </si>
   <si>
     <t>03/14/2020 21:48:58</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>03/16/2020 09:52:53</t>
+  </si>
+  <si>
+    <t>03/16/2020 10:31:50</t>
+  </si>
+  <si>
+    <t>03/16/2020 10:32:32</t>
+  </si>
+  <si>
+    <t>03/22/2020 21:26:27</t>
+  </si>
+  <si>
+    <t>03/22/2020 22:18:53</t>
+  </si>
+  <si>
+    <t>03/22/2020 22:20:35</t>
+  </si>
+  <si>
+    <t>03/22/2020 22:21:03</t>
+  </si>
+  <si>
+    <t>03/22/2020 22:22:12</t>
+  </si>
+  <si>
+    <t>03/22/2020 22:22:49</t>
+  </si>
+  <si>
+    <t>03/22/2020 22:23:27</t>
+  </si>
+  <si>
+    <t>03/22/2020 23:08:58</t>
+  </si>
+  <si>
+    <t>03/22/2020 23:09:36</t>
   </si>
 </sst>
 </file>
@@ -428,7 +467,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.37109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.234375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.0234375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -442,10 +481,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="144">
   <si>
     <t>kvw5270</t>
   </si>
@@ -417,6 +417,33 @@
   </si>
   <si>
     <t>03/22/2020 23:09:36</t>
+  </si>
+  <si>
+    <t>03/22/2020 23:14:29</t>
+  </si>
+  <si>
+    <t>03/22/2020 23:14:43</t>
+  </si>
+  <si>
+    <t>03/23/2020 21:44:21</t>
+  </si>
+  <si>
+    <t>03/23/2020 21:45:22</t>
+  </si>
+  <si>
+    <t>03/23/2020 22:15:12</t>
+  </si>
+  <si>
+    <t>03/23/2020 22:18:01</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>03/23/2020 22:34:51</t>
+  </si>
+  <si>
+    <t>03/23/2020 22:38:38</t>
   </si>
 </sst>
 </file>
@@ -481,10 +508,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="147">
   <si>
     <t>kvw5270</t>
   </si>
@@ -444,6 +444,15 @@
   </si>
   <si>
     <t>03/23/2020 22:38:38</t>
+  </si>
+  <si>
+    <t>03/24/2020 00:53:58</t>
+  </si>
+  <si>
+    <t>03/24/2020 00:59:25</t>
+  </si>
+  <si>
+    <t>03/24/2020 01:00:57</t>
   </si>
 </sst>
 </file>
@@ -508,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="152">
   <si>
     <t>kvw5270</t>
   </si>
@@ -453,6 +453,21 @@
   </si>
   <si>
     <t>03/24/2020 01:00:57</t>
+  </si>
+  <si>
+    <t>03/24/2020 01:09:08</t>
+  </si>
+  <si>
+    <t>03/24/2020 01:10:03</t>
+  </si>
+  <si>
+    <t>03/24/2020 01:10:16</t>
+  </si>
+  <si>
+    <t>03/24/2020 01:10:29</t>
+  </si>
+  <si>
+    <t>03/24/2020 01:12:32</t>
   </si>
 </sst>
 </file>
@@ -503,16 +518,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.234375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.0625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.0234375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
@@ -520,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="179">
   <si>
     <t>kvw5270</t>
   </si>
@@ -468,6 +468,87 @@
   </si>
   <si>
     <t>03/24/2020 01:12:32</t>
+  </si>
+  <si>
+    <t>03/24/2020 10:01:00</t>
+  </si>
+  <si>
+    <t>03/24/2020 10:03:00</t>
+  </si>
+  <si>
+    <t>03/24/2020 10:04:41</t>
+  </si>
+  <si>
+    <t>03/24/2020 10:05:03</t>
+  </si>
+  <si>
+    <t>03/24/2020 10:05:50</t>
+  </si>
+  <si>
+    <t>03/24/2020 10:07:19</t>
+  </si>
+  <si>
+    <t>03/24/2020 10:09:19</t>
+  </si>
+  <si>
+    <t>03/30/2020 22:36:53</t>
+  </si>
+  <si>
+    <t>03/30/2020 22:52:07</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:01:57</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:02:16</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:03:39</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:05:37</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:07:03</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:08:48</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:09:44</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:10:04</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:11:16</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:11:44</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:13:57</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:14:32</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:15:17</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:15:48</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:18:23</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:19:47</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:22:16</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:23:53</t>
   </si>
 </sst>
 </file>
@@ -535,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="191">
   <si>
     <t>kvw5270</t>
   </si>
@@ -549,6 +549,42 @@
   </si>
   <si>
     <t>03/30/2020 23:23:53</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:46:25</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:48:30</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:49:53</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:51:02</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:51:41</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:52:46</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:53:05</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:53:46</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:54:04</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:54:34</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:56:39</t>
+  </si>
+  <si>
+    <t>03/30/2020 23:57:28</t>
   </si>
 </sst>
 </file>
@@ -616,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanga\Documents\NetBeansProjects\Dynamic-queue-scheduler\SchedulerProgram\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BACEFA0-B514-4599-A9F9-DA0FCC1670F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Student Details" r:id="rId3" sheetId="1"/>
+    <sheet name="Student Details" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>Username</t>
   </si>
@@ -20,59 +28,143 @@
     <t>Login Timestamp</t>
   </si>
   <si>
-    <t>Course Added TimeStamp</t>
+    <t>CMPSC 121 Timestamp</t>
+  </si>
+  <si>
+    <t>IE 405 Timestamp</t>
+  </si>
+  <si>
+    <t>Queue Scenario (Time or Wait Info)</t>
   </si>
   <si>
     <t>kvw5270</t>
   </si>
   <si>
-    <t>03/31/2020 02:03:02</t>
-  </si>
-  <si>
-    <t>03/31/2020 02:03:07</t>
-  </si>
-  <si>
-    <t>03/31/2020 02:17:10</t>
-  </si>
-  <si>
-    <t>03/31/2020 02:17:32</t>
-  </si>
-  <si>
-    <t>03/31/2020 02:17:38</t>
-  </si>
-  <si>
-    <t>03/31/2020 02:17:51</t>
-  </si>
-  <si>
-    <t>03/31/2020 02:18:34</t>
-  </si>
-  <si>
-    <t>03/31/2020 02:19:26</t>
-  </si>
-  <si>
-    <t>03/31/2020 02:20:56</t>
-  </si>
-  <si>
-    <t>03/31/2020 02:25:31</t>
-  </si>
-  <si>
-    <t>03/31/2020 02:28:07</t>
-  </si>
-  <si>
-    <t>03/31/2020 02:28:12</t>
-  </si>
-  <si>
-    <t>03/31/2020 02:28:23</t>
+    <t>04/05/2020 22:35:56</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:36:21</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:36:53</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:37:15</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:38:45</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:41:38</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:42:15</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:45:18</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:45:39</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:45:45</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:45:59</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:49:08</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:49:22</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:49:38</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:50:13</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:50:20</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:50:54</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:52:24</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:54:37</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:54:43</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:55:07</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:55:14</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:56:19</t>
+  </si>
+  <si>
+    <t>04/05/2020 22:56:24</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:01:12</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:01:16</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:01:25</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:01:48</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:02:06</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:04:51</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:05:00</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:05:17</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:05:22</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:23:34</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:23:40</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:32:28</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:32:48</t>
+  </si>
+  <si>
+    <t>04/05/2020 23:33:15</t>
+  </si>
+  <si>
+    <t>04/06/2020 00:01:33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -84,7 +176,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -102,25 +194,337 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.0625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.0234375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="20.0234375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -128,13 +532,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Username</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>04/06/2020 00:01:33</t>
+  </si>
+  <si>
+    <t>04/08/2020 08:40:06</t>
+  </si>
+  <si>
+    <t>04/08/2020 10:02:04</t>
   </si>
 </sst>
 </file>
@@ -535,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -45,6 +45,48 @@
   </si>
   <si>
     <t>04/14/2020 00:33:41</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:41:05</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:41:29</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:41:43</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:42:55</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:43:25</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:46:39</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:48:52</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:49:21</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:49:27</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:49:32</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:51:29</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:51:46</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:51:53</t>
+  </si>
+  <si>
+    <t>04/14/2020 00:51:59</t>
   </si>
 </sst>
 </file>
@@ -113,13 +155,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/SchedulerProgram/students.xlsx
+++ b/SchedulerProgram/students.xlsx
@@ -12,81 +12,336 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
   <si>
     <t>Username</t>
   </si>
   <si>
-    <t>Login Timestamp</t>
-  </si>
-  <si>
-    <t>Course Added TimeStamp</t>
+    <t>Log In Time</t>
+  </si>
+  <si>
+    <t>Countdown Timer started</t>
+  </si>
+  <si>
+    <t>Queue Jump Time</t>
+  </si>
+  <si>
+    <t>Timer Setting: Timer Type</t>
+  </si>
+  <si>
+    <t>Timer Setting: Time to wait</t>
+  </si>
+  <si>
+    <t>Timer Setting: Timer until Queue Jump</t>
+  </si>
+  <si>
+    <t>Countdown Timer ended</t>
+  </si>
+  <si>
+    <t>First Course</t>
+  </si>
+  <si>
+    <t>First Course Added</t>
+  </si>
+  <si>
+    <t>Second Course</t>
+  </si>
+  <si>
+    <t>Second Course Added</t>
+  </si>
+  <si>
+    <t>Third Course</t>
+  </si>
+  <si>
+    <t>Third Course Added</t>
+  </si>
+  <si>
+    <t>Fourth Course</t>
+  </si>
+  <si>
+    <t>Fourth Course added</t>
+  </si>
+  <si>
+    <t>Fifth Course</t>
+  </si>
+  <si>
+    <t>Fifth Course added</t>
+  </si>
+  <si>
+    <t>Logged Out</t>
   </si>
   <si>
     <t>kvw5270</t>
   </si>
   <si>
-    <t>04/14/2020 00:28:23</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:28:30</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:28:35</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:33:27</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:33:34</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:33:41</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:41:05</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:41:29</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:41:43</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:42:55</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:43:25</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:46:39</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:48:52</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:49:21</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:49:27</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:49:32</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:51:29</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:51:46</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:51:53</t>
-  </si>
-  <si>
-    <t>04/14/2020 00:51:59</t>
+    <t>07/22/2020 10:10:02</t>
+  </si>
+  <si>
+    <t>07/22/2020 10:11:55</t>
+  </si>
+  <si>
+    <t>QueueInfo.TimeInfoTimer</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>07/22/2020 10:14:59</t>
+  </si>
+  <si>
+    <t>Introduction to Programming Techniques</t>
+  </si>
+  <si>
+    <t>07/22/2020 10:10:09</t>
+  </si>
+  <si>
+    <t>Discrete Math</t>
+  </si>
+  <si>
+    <t>07/22/2020 10:10:14</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>07/22/2020 10:15:38</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>08/02/2020 15:41:18</t>
+  </si>
+  <si>
+    <t>08/02/2020 15:41:28</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>08/02/2020 15:42:29</t>
+  </si>
+  <si>
+    <t>08/02/2020 15:41:22</t>
+  </si>
+  <si>
+    <t>08/02/2020 15:41:25</t>
+  </si>
+  <si>
+    <t>08/02/2020 15:42:36</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>08/02/2020 15:51:11</t>
+  </si>
+  <si>
+    <t>08/02/2020 15:51:22</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>08/02/2020 15:56:59</t>
+  </si>
+  <si>
+    <t>08/02/2020 15:51:13</t>
+  </si>
+  <si>
+    <t>08/02/2020 15:51:18</t>
+  </si>
+  <si>
+    <t>08/02/2020 15:57:04</t>
+  </si>
+  <si>
+    <t>duran</t>
+  </si>
+  <si>
+    <t>08/02/2020 16:20:12</t>
+  </si>
+  <si>
+    <t>08/02/2020 16:20:22</t>
+  </si>
+  <si>
+    <t>08/02/2020 16:21:23</t>
+  </si>
+  <si>
+    <t>08/02/2020 16:24:28</t>
+  </si>
+  <si>
+    <t>08/02/2020 16:20:16</t>
+  </si>
+  <si>
+    <t>08/02/2020 16:20:19</t>
+  </si>
+  <si>
+    <t>08/02/2020 16:28:03</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>08/02/2020 17:22:54</t>
+  </si>
+  <si>
+    <t>08/02/2020 17:23:11</t>
+  </si>
+  <si>
+    <t>08/02/2020 17:24:11</t>
+  </si>
+  <si>
+    <t>08/02/2020 17:23:00</t>
+  </si>
+  <si>
+    <t>08/02/2020 17:23:05</t>
+  </si>
+  <si>
+    <t>08/02/2020 17:25:37</t>
+  </si>
+  <si>
+    <t>08/04/2020 18:52:13</t>
+  </si>
+  <si>
+    <t>08/04/2020 18:53:08</t>
+  </si>
+  <si>
+    <t>08/04/2020 18:54:09</t>
+  </si>
+  <si>
+    <t>Effective Writing: Technical Writing</t>
+  </si>
+  <si>
+    <t>08/04/2020 18:52:17</t>
+  </si>
+  <si>
+    <t>Properties and Processing of Engineering Materials</t>
+  </si>
+  <si>
+    <t>08/04/2020 18:53:01</t>
+  </si>
+  <si>
+    <t>Deterministic Models in Operations Research</t>
+  </si>
+  <si>
+    <t>08/04/2020 18:55:48</t>
+  </si>
+  <si>
+    <t>Actions Methods for Stress Management</t>
+  </si>
+  <si>
+    <t>08/04/2020 18:56:08</t>
+  </si>
+  <si>
+    <t>08/04/2020 18:56:11</t>
+  </si>
+  <si>
+    <t>ctest</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:04:12</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:04:25</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:05:26</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:04:16</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:04:20</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:05:51</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:06:49</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:06:52</t>
+  </si>
+  <si>
+    <t>dtest</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:08:19</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:08:40</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:09:41</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:08:24</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:08:34</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:09:49</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:10:00</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:10:01</t>
+  </si>
+  <si>
+    <t>etest</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:10:32</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:10:49</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:11:49</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:10:36</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:10:42</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:12:07</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:12:15</t>
+  </si>
+  <si>
+    <t>08/04/2020 19:12:17</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>08/04/2020 20:11:53</t>
+  </si>
+  <si>
+    <t>08/04/2020 20:11:57</t>
+  </si>
+  <si>
+    <t>08/04/2020 20:12:04</t>
+  </si>
+  <si>
+    <t>08/04/2020 20:12:11</t>
+  </si>
+  <si>
+    <t>08/04/2020 20:12:18</t>
+  </si>
+  <si>
+    <t>08/04/2020 20:12:22</t>
+  </si>
+  <si>
+    <t>08/04/2020 20:12:24</t>
   </si>
 </sst>
 </file>
@@ -131,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -139,7 +394,23 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="10.234375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.0234375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.22265625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.05859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.21484375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.28125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.28125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="35.58984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.3125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.0234375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.0234375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="41.4453125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.5859375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="32.6171875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.0234375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="46.54296875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.0234375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="37.640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.9375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.0234375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -152,16 +423,104 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
